--- a/data/Calorias por edad.xlsx
+++ b/data/Calorias por edad.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3. Propuestas\Distance Education\SEA004\Mapas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kei\Documents\GitHub\FS-Security\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF00403E-EFAB-4AA0-81D8-79737185A7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12315"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Edad</t>
   </si>
@@ -33,12 +45,51 @@
   </si>
   <si>
     <t>Caloriasmujer</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 0-4</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 5-9</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 10-14</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 15-19</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 20-24</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 25-34</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 35-44</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 45-54</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 55-59</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 60-64</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 65-74</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 75-84</t>
+  </si>
+  <si>
+    <t>Agrupacion de Edades 85+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,16 +400,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C87"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,8 +419,47 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -379,8 +469,12 @@
       <c r="C2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>SUM(B2:B6)</f>
+        <v>5920.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -391,7 +485,7 @@
         <v>1047.3599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -402,7 +496,7 @@
         <v>1094.72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -413,7 +507,7 @@
         <v>1142.08</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -424,7 +518,7 @@
         <v>1189.44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -435,7 +529,7 @@
         <v>1236.8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -446,7 +540,7 @@
         <v>1284.1599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -457,7 +551,7 @@
         <v>1331.52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -468,7 +562,7 @@
         <v>1378.88</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -479,7 +573,7 @@
         <v>1426.24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -490,7 +584,7 @@
         <v>1473.6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -501,7 +595,7 @@
         <v>1520.96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -512,7 +606,7 @@
         <v>1568.32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -523,7 +617,7 @@
         <v>1615.6799999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -534,7 +628,7 @@
         <v>1663.04</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -545,7 +639,7 @@
         <v>1710.4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -556,7 +650,7 @@
         <v>1757.76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -567,7 +661,7 @@
         <v>1805.12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -578,7 +672,7 @@
         <v>1852.48</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -589,7 +683,7 @@
         <v>1843.19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -600,7 +694,7 @@
         <v>1838.3000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -611,7 +705,7 @@
         <v>1833.4099999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -622,7 +716,7 @@
         <v>1828.52</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -633,7 +727,7 @@
         <v>1823.6299999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -644,7 +738,7 @@
         <v>1818.7399999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -655,7 +749,7 @@
         <v>1813.85</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -666,7 +760,7 @@
         <v>1808.9599999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -677,7 +771,7 @@
         <v>1804.0700000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -688,7 +782,7 @@
         <v>1799.1799999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -699,7 +793,7 @@
         <v>1794.29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -710,7 +804,7 @@
         <v>1789.4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -721,7 +815,7 @@
         <v>1784.5099999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -732,7 +826,7 @@
         <v>1779.62</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -743,7 +837,7 @@
         <v>1774.73</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -754,7 +848,7 @@
         <v>1769.8399999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -765,7 +859,7 @@
         <v>1764.9499999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -776,7 +870,7 @@
         <v>1760.06</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -787,7 +881,7 @@
         <v>1755.1699999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -798,7 +892,7 @@
         <v>1750.2800000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -809,7 +903,7 @@
         <v>1745.3899999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -820,7 +914,7 @@
         <v>1740.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -831,7 +925,7 @@
         <v>1735.6100000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -842,7 +936,7 @@
         <v>1730.7199999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -853,7 +947,7 @@
         <v>1725.83</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -864,7 +958,7 @@
         <v>1720.94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -875,7 +969,7 @@
         <v>1716.0499999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -886,7 +980,7 @@
         <v>1711.1599999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -897,7 +991,7 @@
         <v>1706.2700000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -908,7 +1002,7 @@
         <v>1701.38</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -919,7 +1013,7 @@
         <v>1696.4899999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -930,7 +1024,7 @@
         <v>1691.6000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -941,7 +1035,7 @@
         <v>1686.71</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -952,7 +1046,7 @@
         <v>1681.8199999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -963,7 +1057,7 @@
         <v>1676.9300000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -974,7 +1068,7 @@
         <v>1672.04</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -985,7 +1079,7 @@
         <v>1667.1500000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -996,7 +1090,7 @@
         <v>1662.2600000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1007,7 +1101,7 @@
         <v>1657.37</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1018,7 +1112,7 @@
         <v>1652.4800000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1029,7 +1123,7 @@
         <v>1647.5900000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1040,7 +1134,7 @@
         <v>1642.6999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1051,7 +1145,7 @@
         <v>1637.8100000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1062,7 +1156,7 @@
         <v>1632.92</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1073,7 +1167,7 @@
         <v>1628.0299999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1084,7 +1178,7 @@
         <v>1623.1400000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1095,7 +1189,7 @@
         <v>1618.25</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1106,7 +1200,7 @@
         <v>1613.3600000000006</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1117,7 +1211,7 @@
         <v>1608.4700000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1128,7 +1222,7 @@
         <v>1603.58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1139,7 +1233,7 @@
         <v>1598.6900000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1150,7 +1244,7 @@
         <v>1593.8000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1161,7 +1255,7 @@
         <v>1588.9099999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1172,7 +1266,7 @@
         <v>1584.0200000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1183,7 +1277,7 @@
         <v>1579.13</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1194,7 +1288,7 @@
         <v>1574.2399999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1205,7 +1299,7 @@
         <v>1569.3500000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1216,7 +1310,7 @@
         <v>1564.4600000000009</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1227,7 +1321,7 @@
         <v>1559.5699999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1238,7 +1332,7 @@
         <v>1554.6800000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1249,7 +1343,7 @@
         <v>1549.7900000000009</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1260,7 +1354,7 @@
         <v>1544.9000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1271,7 +1365,7 @@
         <v>1540.0100000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1282,7 +1376,7 @@
         <v>1535.1200000000008</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1293,7 +1387,7 @@
         <v>1530.2300000000005</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1304,7 +1398,7 @@
         <v>1525.3400000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>

--- a/data/Calorias por edad.xlsx
+++ b/data/Calorias por edad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kei\Documents\GitHub\FS-Security\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF00403E-EFAB-4AA0-81D8-79737185A7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A24A9A-E9FE-4221-ABE2-EAEDE30558EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Edad</t>
   </si>
@@ -84,13 +84,19 @@
   </si>
   <si>
     <t>Agrupacion de Edades 85+</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,13 +104,97 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,14 +209,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6699"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -401,15 +509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,209 +527,354 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1000</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
-      <c r="D2">
-        <f>SUM(B2:B6)</f>
-        <v>5920.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1092.05</v>
       </c>
       <c r="C3">
         <v>1047.3599999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1184.0999999999999</v>
       </c>
       <c r="C4">
         <v>1094.72</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1">
+        <f>AVERAGE(B2:B6)</f>
+        <v>1184.0999999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <f>AVERAGE(B7:B11)</f>
+        <v>1644.35</v>
+      </c>
+      <c r="H4" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>2104.6</v>
+      </c>
+      <c r="I4" s="4">
+        <f>AVERAGE(B17:B21)</f>
+        <v>2550.982</v>
+      </c>
+      <c r="J4" s="5">
+        <f>AVERAGE(B22:B26)</f>
+        <v>2654.56</v>
+      </c>
+      <c r="K4" s="6">
+        <f>AVERAGE(B27:B36)</f>
+        <v>2591.9349999999999</v>
+      </c>
+      <c r="L4" s="8">
+        <f>AVERAGE(B37:B46)</f>
+        <v>2508.4349999999999</v>
+      </c>
+      <c r="M4" s="9">
+        <f>AVERAGE(B47:B56)</f>
+        <v>2424.9349999999999</v>
+      </c>
+      <c r="N4" s="10">
+        <f>AVERAGE(B57:B61)</f>
+        <v>2362.3099999999995</v>
+      </c>
+      <c r="O4" s="11">
+        <f>AVERAGE(B62:B66)</f>
+        <v>2320.559999999999</v>
+      </c>
+      <c r="P4" s="12">
+        <f>AVERAGE(B67:B76)</f>
+        <v>2257.934999999999</v>
+      </c>
+      <c r="Q4" s="13">
+        <f>AVERAGE(B77:B86)</f>
+        <v>2174.4349999999995</v>
+      </c>
+      <c r="R4">
+        <f>B87</f>
+        <v>2128.5100000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1276.1500000000001</v>
       </c>
       <c r="C5">
         <v>1142.08</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1368.2</v>
       </c>
       <c r="C6">
         <v>1189.44</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1460.25</v>
       </c>
       <c r="C7">
         <v>1236.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1094.72</v>
+      </c>
+      <c r="G7" s="2">
+        <f>AVERAGE(C7:C11)</f>
+        <v>1331.52</v>
+      </c>
+      <c r="H7" s="3">
+        <f>AVERAGE(C12:C16)</f>
+        <v>1568.32</v>
+      </c>
+      <c r="I7" s="4">
+        <f>AVERAGE(C17:C21)</f>
+        <v>1793.7900000000002</v>
+      </c>
+      <c r="J7" s="5">
+        <f>AVERAGE(C22:C26)</f>
+        <v>1828.5199999999998</v>
+      </c>
+      <c r="K7" s="6">
+        <f>AVERAGE(C27:C36)</f>
+        <v>1791.8449999999998</v>
+      </c>
+      <c r="L7" s="8">
+        <f>AVERAGE(C37:C46)</f>
+        <v>1742.9449999999997</v>
+      </c>
+      <c r="M7" s="9">
+        <f>AVERAGE(C47:C56)</f>
+        <v>1694.0450000000001</v>
+      </c>
+      <c r="N7" s="10">
+        <f>AVERAGE(C57:C61)</f>
+        <v>1657.3700000000003</v>
+      </c>
+      <c r="O7" s="11">
+        <f>AVERAGE(C62:C66)</f>
+        <v>1632.92</v>
+      </c>
+      <c r="P7" s="12">
+        <f>AVERAGE(C67:C76)</f>
+        <v>1596.2450000000003</v>
+      </c>
+      <c r="Q7" s="13">
+        <f>AVERAGE(C77:C86)</f>
+        <v>1547.3450000000005</v>
+      </c>
+      <c r="R7">
+        <f>C87</f>
+        <v>1520.4500000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>1552.3</v>
       </c>
       <c r="C8">
         <v>1284.1599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>1644.35</v>
       </c>
       <c r="C9">
         <v>1331.52</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>1736.4</v>
       </c>
       <c r="C10">
         <v>1378.88</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1828.4499999999998</v>
       </c>
       <c r="C11">
         <v>1426.24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>1920.5</v>
       </c>
       <c r="C12">
         <v>1473.6</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>2012.55</v>
       </c>
       <c r="C13">
         <v>1520.96</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>2104.6</v>
       </c>
       <c r="C14">
         <v>1568.32</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>2196.6499999999996</v>
       </c>
       <c r="C15">
         <v>1615.6799999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>2288.6999999999998</v>
       </c>
       <c r="C16">
@@ -632,7 +885,7 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>2380.75</v>
       </c>
       <c r="C17">
@@ -643,7 +896,7 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>2472.8000000000002</v>
       </c>
       <c r="C18">
@@ -654,7 +907,7 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>2564.85</v>
       </c>
       <c r="C19">
@@ -665,7 +918,7 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>2656.8999999999996</v>
       </c>
       <c r="C20">
@@ -676,7 +929,7 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>2679.6099999999997</v>
       </c>
       <c r="C21">
@@ -687,7 +940,7 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>2671.26</v>
       </c>
       <c r="C22">
@@ -698,7 +951,7 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>2662.9100000000003</v>
       </c>
       <c r="C23">
@@ -709,7 +962,7 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>2654.5599999999995</v>
       </c>
       <c r="C24">
@@ -720,7 +973,7 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>2646.2099999999996</v>
       </c>
       <c r="C25">
@@ -731,7 +984,7 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>2637.8599999999997</v>
       </c>
       <c r="C26">
@@ -742,7 +995,7 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>2629.51</v>
       </c>
       <c r="C27">
@@ -753,7 +1006,7 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>2621.1599999999994</v>
       </c>
       <c r="C28">
@@ -764,7 +1017,7 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>2612.8099999999995</v>
       </c>
       <c r="C29">
@@ -775,7 +1028,7 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>2604.4599999999996</v>
       </c>
       <c r="C30">
@@ -786,7 +1039,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>2596.1099999999997</v>
       </c>
       <c r="C31">
@@ -797,7 +1050,7 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>2587.7600000000002</v>
       </c>
       <c r="C32">
@@ -808,7 +1061,7 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>2579.4099999999994</v>
       </c>
       <c r="C33">
@@ -819,7 +1072,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>2571.0599999999995</v>
       </c>
       <c r="C34">
@@ -830,7 +1083,7 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>2562.7099999999996</v>
       </c>
       <c r="C35">
@@ -841,7 +1094,7 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>2554.3599999999997</v>
       </c>
       <c r="C36">
@@ -852,7 +1105,7 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="7">
         <v>2546.0100000000002</v>
       </c>
       <c r="C37">
@@ -863,7 +1116,7 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="7">
         <v>2537.6599999999994</v>
       </c>
       <c r="C38">
@@ -874,7 +1127,7 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="7">
         <v>2529.3100000000004</v>
       </c>
       <c r="C39">
@@ -885,7 +1138,7 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="7">
         <v>2520.9599999999996</v>
       </c>
       <c r="C40">
@@ -896,7 +1149,7 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="7">
         <v>2512.6099999999997</v>
       </c>
       <c r="C41">
@@ -907,7 +1160,7 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="7">
         <v>2504.2600000000002</v>
       </c>
       <c r="C42">
@@ -918,7 +1171,7 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="7">
         <v>2495.9099999999989</v>
       </c>
       <c r="C43">
@@ -929,7 +1182,7 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="7">
         <v>2487.5600000000004</v>
       </c>
       <c r="C44">
@@ -940,7 +1193,7 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="7">
         <v>2479.21</v>
       </c>
       <c r="C45">
@@ -951,7 +1204,7 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="7">
         <v>2470.8599999999997</v>
       </c>
       <c r="C46">
@@ -962,7 +1215,7 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="9">
         <v>2462.5100000000002</v>
       </c>
       <c r="C47">
@@ -973,7 +1226,7 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="9">
         <v>2454.16</v>
       </c>
       <c r="C48">
@@ -984,7 +1237,7 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="9">
         <v>2445.8099999999995</v>
       </c>
       <c r="C49">
@@ -995,7 +1248,7 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="9">
         <v>2437.4599999999991</v>
       </c>
       <c r="C50">
@@ -1006,7 +1259,7 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="9">
         <v>2429.1099999999997</v>
       </c>
       <c r="C51">
@@ -1017,7 +1270,7 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="9">
         <v>2420.7600000000002</v>
       </c>
       <c r="C52">
@@ -1028,7 +1281,7 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="9">
         <v>2412.41</v>
       </c>
       <c r="C53">
@@ -1039,7 +1292,7 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="9">
         <v>2404.0599999999995</v>
       </c>
       <c r="C54">
@@ -1050,7 +1303,7 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="9">
         <v>2395.7099999999991</v>
       </c>
       <c r="C55">
@@ -1061,7 +1314,7 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="9">
         <v>2387.3599999999997</v>
       </c>
       <c r="C56">
@@ -1072,7 +1325,7 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="10">
         <v>2379.0100000000002</v>
       </c>
       <c r="C57">
@@ -1083,7 +1336,7 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="10">
         <v>2370.66</v>
       </c>
       <c r="C58">
@@ -1094,7 +1347,7 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="10">
         <v>2362.3099999999995</v>
       </c>
       <c r="C59">
@@ -1105,7 +1358,7 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="10">
         <v>2353.9599999999991</v>
       </c>
       <c r="C60">
@@ -1116,7 +1369,7 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="10">
         <v>2345.6099999999988</v>
       </c>
       <c r="C61">
@@ -1127,7 +1380,7 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="11">
         <v>2337.2600000000002</v>
       </c>
       <c r="C62">
@@ -1138,7 +1391,7 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="11">
         <v>2328.9099999999989</v>
       </c>
       <c r="C63">
@@ -1149,7 +1402,7 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="11">
         <v>2320.5599999999986</v>
       </c>
       <c r="C64">
@@ -1160,7 +1413,7 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="11">
         <v>2312.2099999999991</v>
       </c>
       <c r="C65">
@@ -1171,7 +1424,7 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="11">
         <v>2303.8599999999988</v>
       </c>
       <c r="C66">
@@ -1182,7 +1435,7 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="12">
         <v>2295.5100000000002</v>
       </c>
       <c r="C67">
@@ -1193,7 +1446,7 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="12">
         <v>2287.1599999999989</v>
       </c>
       <c r="C68">
@@ -1204,7 +1457,7 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="12">
         <v>2278.8099999999986</v>
       </c>
       <c r="C69">
@@ -1215,7 +1468,7 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="12">
         <v>2270.4599999999991</v>
       </c>
       <c r="C70">
@@ -1226,7 +1479,7 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="12">
         <v>2262.1099999999988</v>
       </c>
       <c r="C71">
@@ -1237,7 +1490,7 @@
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="12">
         <v>2253.7600000000002</v>
       </c>
       <c r="C72">
@@ -1248,7 +1501,7 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="12">
         <v>2245.4099999999989</v>
       </c>
       <c r="C73">
@@ -1259,7 +1512,7 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="12">
         <v>2237.0599999999986</v>
       </c>
       <c r="C74">
@@ -1270,7 +1523,7 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="12">
         <v>2228.7099999999991</v>
       </c>
       <c r="C75">
@@ -1281,7 +1534,7 @@
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="12">
         <v>2220.3599999999988</v>
       </c>
       <c r="C76">
@@ -1292,7 +1545,7 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="13">
         <v>2212.0100000000002</v>
       </c>
       <c r="C77">
@@ -1303,7 +1556,7 @@
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="13">
         <v>2203.6599999999989</v>
       </c>
       <c r="C78">
@@ -1314,7 +1567,7 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="13">
         <v>2195.3099999999986</v>
       </c>
       <c r="C79">
@@ -1325,7 +1578,7 @@
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="13">
         <v>2186.9599999999991</v>
       </c>
       <c r="C80">
@@ -1336,7 +1589,7 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="13">
         <v>2178.6100000000006</v>
       </c>
       <c r="C81">
@@ -1347,7 +1600,7 @@
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="13">
         <v>2170.2600000000002</v>
       </c>
       <c r="C82">
@@ -1358,7 +1611,7 @@
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="13">
         <v>2161.9099999999989</v>
       </c>
       <c r="C83">
@@ -1369,7 +1622,7 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="13">
         <v>2153.5599999999977</v>
       </c>
       <c r="C84">
@@ -1380,7 +1633,7 @@
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="13">
         <v>2145.2099999999991</v>
       </c>
       <c r="C85">
@@ -1391,7 +1644,7 @@
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="13">
         <v>2136.8600000000006</v>
       </c>
       <c r="C86">
@@ -1411,5 +1664,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Calorias por edad.xlsx
+++ b/data/Calorias por edad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kei\Documents\GitHub\FS-Security\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A24A9A-E9FE-4221-ABE2-EAEDE30558EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695D0B68-481A-4997-8453-2A8F33D4F653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Edad</t>
   </si>
@@ -47,56 +47,149 @@
     <t>Caloriasmujer</t>
   </si>
   <si>
-    <t>Agrupacion de Edades 0-4</t>
-  </si>
-  <si>
-    <t>Agrupacion de Edades 5-9</t>
-  </si>
-  <si>
-    <t>Agrupacion de Edades 10-14</t>
-  </si>
-  <si>
-    <t>Agrupacion de Edades 15-19</t>
-  </si>
-  <si>
-    <t>Agrupacion de Edades 20-24</t>
-  </si>
-  <si>
-    <t>Agrupacion de Edades 25-34</t>
-  </si>
-  <si>
-    <t>Agrupacion de Edades 35-44</t>
-  </si>
-  <si>
-    <t>Agrupacion de Edades 45-54</t>
-  </si>
-  <si>
-    <t>Agrupacion de Edades 55-59</t>
-  </si>
-  <si>
-    <t>Agrupacion de Edades 60-64</t>
-  </si>
-  <si>
-    <t>Agrupacion de Edades 65-74</t>
-  </si>
-  <si>
-    <t>Agrupacion de Edades 75-84</t>
-  </si>
-  <si>
-    <t>Agrupacion de Edades 85+</t>
-  </si>
-  <si>
-    <t>Hombres</t>
-  </si>
-  <si>
-    <t>Mujeres</t>
+    <t>maleGroup 0-4</t>
+  </si>
+  <si>
+    <t>maleGroup 5-9</t>
+  </si>
+  <si>
+    <t>maleGroup 10-14</t>
+  </si>
+  <si>
+    <t>maleGroup 15-17</t>
+  </si>
+  <si>
+    <t>maleGroup 18-19</t>
+  </si>
+  <si>
+    <t>maleGroup 20</t>
+  </si>
+  <si>
+    <t>maleGroup 21</t>
+  </si>
+  <si>
+    <t>maleGroup 22-24</t>
+  </si>
+  <si>
+    <t>maleGroup 25-29</t>
+  </si>
+  <si>
+    <t>maleGroup 30-34</t>
+  </si>
+  <si>
+    <t>maleGroup 35-39</t>
+  </si>
+  <si>
+    <t>maleGroup 40-44</t>
+  </si>
+  <si>
+    <t>maleGroup 45-49</t>
+  </si>
+  <si>
+    <t>maleGroup 50-54</t>
+  </si>
+  <si>
+    <t>maleGroup 55-59</t>
+  </si>
+  <si>
+    <t>maleGroup 60-61</t>
+  </si>
+  <si>
+    <t>maleGroup 62-64</t>
+  </si>
+  <si>
+    <t>maleGroup 65-66</t>
+  </si>
+  <si>
+    <t>maleGroup 67-69</t>
+  </si>
+  <si>
+    <t>maleGroup 70-74</t>
+  </si>
+  <si>
+    <t>maleGroup 75-79</t>
+  </si>
+  <si>
+    <t>maleGroup 80-84</t>
+  </si>
+  <si>
+    <t>maleGroup 85+</t>
+  </si>
+  <si>
+    <t>femaleGroup 0-4</t>
+  </si>
+  <si>
+    <t>femaleGroup 5-9</t>
+  </si>
+  <si>
+    <t>femaleGroup 10-14</t>
+  </si>
+  <si>
+    <t>femaleGroup 15-17</t>
+  </si>
+  <si>
+    <t>femaleGroup 18-19</t>
+  </si>
+  <si>
+    <t>femaleGroup 20</t>
+  </si>
+  <si>
+    <t>femaleGroup 21</t>
+  </si>
+  <si>
+    <t>femaleGroup 22-24</t>
+  </si>
+  <si>
+    <t>femaleGroup 25-29</t>
+  </si>
+  <si>
+    <t>femaleGroup 30-34</t>
+  </si>
+  <si>
+    <t>femaleGroup 35-39</t>
+  </si>
+  <si>
+    <t>femaleGroup 40-44</t>
+  </si>
+  <si>
+    <t>femaleGroup 45-49</t>
+  </si>
+  <si>
+    <t>femaleGroup 50-54</t>
+  </si>
+  <si>
+    <t>femaleGroup 55-59</t>
+  </si>
+  <si>
+    <t>femaleGroup 60-61</t>
+  </si>
+  <si>
+    <t>femaleGroup 62-64</t>
+  </si>
+  <si>
+    <t>femaleGroup 65-66</t>
+  </si>
+  <si>
+    <t>femaleGroup 67-69</t>
+  </si>
+  <si>
+    <t>femaleGroup 70-74</t>
+  </si>
+  <si>
+    <t>femaleGroup 75-79</t>
+  </si>
+  <si>
+    <t>femaleGroup 80-84</t>
+  </si>
+  <si>
+    <t>femaleGroup 85+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +245,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +296,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9F318D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -209,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -224,6 +366,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,6 +386,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9F318D"/>
       <color rgb="FFFF6699"/>
     </mruColors>
   </colors>
@@ -509,15 +664,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:AW87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +682,146 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -538,8 +831,192 @@
       <c r="C2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <f>AVERAGE(B2:B6)</f>
+        <v>1184.0999999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <f>AVERAGE(B7:B11)</f>
+        <v>1644.35</v>
+      </c>
+      <c r="F2" s="3">
+        <f>AVERAGE(B12:B16)</f>
+        <v>2104.6</v>
+      </c>
+      <c r="G2" s="4">
+        <f>AVERAGE(B17:B19)</f>
+        <v>2472.7999999999997</v>
+      </c>
+      <c r="H2" s="14">
+        <f>AVERAGE(B20:B21)</f>
+        <v>2668.2549999999997</v>
+      </c>
+      <c r="I2">
+        <f>B22</f>
+        <v>2671.26</v>
+      </c>
+      <c r="J2">
+        <f>B23</f>
+        <v>2662.9100000000003</v>
+      </c>
+      <c r="K2" s="5">
+        <f>AVERAGE(B24:B26)</f>
+        <v>2646.2099999999996</v>
+      </c>
+      <c r="L2" s="6">
+        <f>AVERAGE(B27:B31)</f>
+        <v>2612.81</v>
+      </c>
+      <c r="M2" s="17">
+        <f>AVERAGE(B32:B36)</f>
+        <v>2571.06</v>
+      </c>
+      <c r="N2" s="8">
+        <f>AVERAGE(B37:B41)</f>
+        <v>2529.31</v>
+      </c>
+      <c r="O2" s="19">
+        <f>AVERAGE(B42:B46)</f>
+        <v>2487.56</v>
+      </c>
+      <c r="P2" s="9">
+        <f>AVERAGE(B47:B51)</f>
+        <v>2445.81</v>
+      </c>
+      <c r="Q2" s="20">
+        <f>AVERAGE(B52:B56)</f>
+        <v>2404.06</v>
+      </c>
+      <c r="R2" s="10">
+        <f>AVERAGE(B57:B61)</f>
+        <v>2362.3099999999995</v>
+      </c>
+      <c r="S2" s="11">
+        <f>AVERAGE(B62:B63)</f>
+        <v>2333.0849999999996</v>
+      </c>
+      <c r="T2" s="21">
+        <f>AVERAGE(B64:B66)</f>
+        <v>2312.2099999999987</v>
+      </c>
+      <c r="U2" s="12">
+        <f>AVERAGE(B67:B68)</f>
+        <v>2291.3349999999996</v>
+      </c>
+      <c r="V2" s="22">
+        <f>AVERAGE(B69:B71)</f>
+        <v>2270.4599999999987</v>
+      </c>
+      <c r="W2" s="13">
+        <f>AVERAGE(B72:B76)</f>
+        <v>2237.059999999999</v>
+      </c>
+      <c r="X2" s="23">
+        <f>AVERAGE(B77:B81)</f>
+        <v>2195.3099999999995</v>
+      </c>
+      <c r="Y2" s="25">
+        <f>AVERAGE(B82:B86)</f>
+        <v>2153.559999999999</v>
+      </c>
+      <c r="Z2">
+        <f>B87</f>
+        <v>2128.5100000000002</v>
+      </c>
+      <c r="AA2" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>1094.72</v>
+      </c>
+      <c r="AB2" s="2">
+        <f>AVERAGE(C7:C11)</f>
+        <v>1331.52</v>
+      </c>
+      <c r="AC2" s="3">
+        <f>AVERAGE(C12:C16)</f>
+        <v>1568.32</v>
+      </c>
+      <c r="AD2" s="4">
+        <f>AVERAGE(C17:C19)</f>
+        <v>1757.76</v>
+      </c>
+      <c r="AE2" s="14">
+        <f>AVERAGE(C20:C21)</f>
+        <v>1847.835</v>
+      </c>
+      <c r="AF2">
+        <f>C22</f>
+        <v>1838.3000000000002</v>
+      </c>
+      <c r="AG2">
+        <f>C23</f>
+        <v>1833.4099999999999</v>
+      </c>
+      <c r="AH2" s="5">
+        <f>AVERAGE(C24:C26)</f>
+        <v>1823.6299999999999</v>
+      </c>
+      <c r="AI2" s="6">
+        <f>AVERAGE(C27:C31)</f>
+        <v>1804.0699999999997</v>
+      </c>
+      <c r="AJ2" s="17">
+        <f>AVERAGE(C32:C36)</f>
+        <v>1779.6200000000001</v>
+      </c>
+      <c r="AK2" s="8">
+        <f>AVERAGE(C37:C41)</f>
+        <v>1755.1699999999996</v>
+      </c>
+      <c r="AL2" s="19">
+        <f>AVERAGE(C42:C46)</f>
+        <v>1730.72</v>
+      </c>
+      <c r="AM2" s="9">
+        <f>AVERAGE(C47:C51)</f>
+        <v>1706.2699999999998</v>
+      </c>
+      <c r="AN2" s="20">
+        <f>AVERAGE(C52:C56)</f>
+        <v>1681.8200000000002</v>
+      </c>
+      <c r="AO2" s="10">
+        <f>AVERAGE(C57:C61)</f>
+        <v>1657.3700000000003</v>
+      </c>
+      <c r="AP2" s="11">
+        <f>AVERAGE(C62:C63)</f>
+        <v>1640.2550000000001</v>
+      </c>
+      <c r="AQ2" s="21">
+        <f>AVERAGE(C64:C66)</f>
+        <v>1628.03</v>
+      </c>
+      <c r="AR2" s="12">
+        <f>AVERAGE(C67:C68)</f>
+        <v>1615.8050000000003</v>
+      </c>
+      <c r="AS2" s="22">
+        <f>AVERAGE(C69:C71)</f>
+        <v>1603.5800000000002</v>
+      </c>
+      <c r="AT2" s="13">
+        <f>AVERAGE(C72:C76)</f>
+        <v>1584.02</v>
+      </c>
+      <c r="AU2" s="23">
+        <f>AVERAGE(C77:C81)</f>
+        <v>1559.5700000000004</v>
+      </c>
+      <c r="AV2" s="25">
+        <f>AVERAGE(C82:C86)</f>
+        <v>1535.1200000000003</v>
+      </c>
+      <c r="AW2">
+        <f>C87</f>
+        <v>1520.4500000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -549,47 +1026,8 @@
       <c r="C3">
         <v>1047.3599999999999</v>
       </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -599,63 +1037,8 @@
       <c r="C4">
         <v>1094.72</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1">
-        <f>AVERAGE(B2:B6)</f>
-        <v>1184.0999999999999</v>
-      </c>
-      <c r="G4" s="2">
-        <f>AVERAGE(B7:B11)</f>
-        <v>1644.35</v>
-      </c>
-      <c r="H4" s="3">
-        <f>AVERAGE(B12:B16)</f>
-        <v>2104.6</v>
-      </c>
-      <c r="I4" s="4">
-        <f>AVERAGE(B17:B21)</f>
-        <v>2550.982</v>
-      </c>
-      <c r="J4" s="5">
-        <f>AVERAGE(B22:B26)</f>
-        <v>2654.56</v>
-      </c>
-      <c r="K4" s="6">
-        <f>AVERAGE(B27:B36)</f>
-        <v>2591.9349999999999</v>
-      </c>
-      <c r="L4" s="8">
-        <f>AVERAGE(B37:B46)</f>
-        <v>2508.4349999999999</v>
-      </c>
-      <c r="M4" s="9">
-        <f>AVERAGE(B47:B56)</f>
-        <v>2424.9349999999999</v>
-      </c>
-      <c r="N4" s="10">
-        <f>AVERAGE(B57:B61)</f>
-        <v>2362.3099999999995</v>
-      </c>
-      <c r="O4" s="11">
-        <f>AVERAGE(B62:B66)</f>
-        <v>2320.559999999999</v>
-      </c>
-      <c r="P4" s="12">
-        <f>AVERAGE(B67:B76)</f>
-        <v>2257.934999999999</v>
-      </c>
-      <c r="Q4" s="13">
-        <f>AVERAGE(B77:B86)</f>
-        <v>2174.4349999999995</v>
-      </c>
-      <c r="R4">
-        <f>B87</f>
-        <v>2128.5100000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -666,7 +1049,7 @@
         <v>1142.08</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -676,47 +1059,8 @@
       <c r="C6">
         <v>1189.44</v>
       </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -726,63 +1070,8 @@
       <c r="C7">
         <v>1236.8</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>1094.72</v>
-      </c>
-      <c r="G7" s="2">
-        <f>AVERAGE(C7:C11)</f>
-        <v>1331.52</v>
-      </c>
-      <c r="H7" s="3">
-        <f>AVERAGE(C12:C16)</f>
-        <v>1568.32</v>
-      </c>
-      <c r="I7" s="4">
-        <f>AVERAGE(C17:C21)</f>
-        <v>1793.7900000000002</v>
-      </c>
-      <c r="J7" s="5">
-        <f>AVERAGE(C22:C26)</f>
-        <v>1828.5199999999998</v>
-      </c>
-      <c r="K7" s="6">
-        <f>AVERAGE(C27:C36)</f>
-        <v>1791.8449999999998</v>
-      </c>
-      <c r="L7" s="8">
-        <f>AVERAGE(C37:C46)</f>
-        <v>1742.9449999999997</v>
-      </c>
-      <c r="M7" s="9">
-        <f>AVERAGE(C47:C56)</f>
-        <v>1694.0450000000001</v>
-      </c>
-      <c r="N7" s="10">
-        <f>AVERAGE(C57:C61)</f>
-        <v>1657.3700000000003</v>
-      </c>
-      <c r="O7" s="11">
-        <f>AVERAGE(C62:C66)</f>
-        <v>1632.92</v>
-      </c>
-      <c r="P7" s="12">
-        <f>AVERAGE(C67:C76)</f>
-        <v>1596.2450000000003</v>
-      </c>
-      <c r="Q7" s="13">
-        <f>AVERAGE(C77:C86)</f>
-        <v>1547.3450000000005</v>
-      </c>
-      <c r="R7">
-        <f>C87</f>
-        <v>1520.4500000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -793,7 +1082,7 @@
         <v>1284.1599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -804,7 +1093,7 @@
         <v>1331.52</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -815,7 +1104,7 @@
         <v>1378.88</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -826,7 +1115,7 @@
         <v>1426.24</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -837,7 +1126,7 @@
         <v>1473.6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -848,7 +1137,7 @@
         <v>1520.96</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -859,7 +1148,7 @@
         <v>1568.32</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -870,7 +1159,7 @@
         <v>1615.6799999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -918,7 +1207,7 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="14">
         <v>2656.8999999999996</v>
       </c>
       <c r="C20">
@@ -929,7 +1218,7 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="14">
         <v>2679.6099999999997</v>
       </c>
       <c r="C21">
@@ -940,7 +1229,7 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="15">
         <v>2671.26</v>
       </c>
       <c r="C22">
@@ -951,7 +1240,7 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="15">
         <v>2662.9100000000003</v>
       </c>
       <c r="C23">
@@ -1050,7 +1339,7 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="16">
         <v>2587.7600000000002</v>
       </c>
       <c r="C32">
@@ -1061,7 +1350,7 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="16">
         <v>2579.4099999999994</v>
       </c>
       <c r="C33">
@@ -1072,7 +1361,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="16">
         <v>2571.0599999999995</v>
       </c>
       <c r="C34">
@@ -1083,7 +1372,7 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="16">
         <v>2562.7099999999996</v>
       </c>
       <c r="C35">
@@ -1094,7 +1383,7 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="16">
         <v>2554.3599999999997</v>
       </c>
       <c r="C36">
@@ -1160,7 +1449,7 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="18">
         <v>2504.2600000000002</v>
       </c>
       <c r="C42">
@@ -1171,7 +1460,7 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="18">
         <v>2495.9099999999989</v>
       </c>
       <c r="C43">
@@ -1182,7 +1471,7 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="18">
         <v>2487.5600000000004</v>
       </c>
       <c r="C44">
@@ -1193,7 +1482,7 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="18">
         <v>2479.21</v>
       </c>
       <c r="C45">
@@ -1204,7 +1493,7 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="18">
         <v>2470.8599999999997</v>
       </c>
       <c r="C46">
@@ -1270,7 +1559,7 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="20">
         <v>2420.7600000000002</v>
       </c>
       <c r="C52">
@@ -1281,7 +1570,7 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="20">
         <v>2412.41</v>
       </c>
       <c r="C53">
@@ -1292,7 +1581,7 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="20">
         <v>2404.0599999999995</v>
       </c>
       <c r="C54">
@@ -1303,7 +1592,7 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="20">
         <v>2395.7099999999991</v>
       </c>
       <c r="C55">
@@ -1314,7 +1603,7 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="20">
         <v>2387.3599999999997</v>
       </c>
       <c r="C56">
@@ -1402,7 +1691,7 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="21">
         <v>2320.5599999999986</v>
       </c>
       <c r="C64">
@@ -1413,7 +1702,7 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="21">
         <v>2312.2099999999991</v>
       </c>
       <c r="C65">
@@ -1424,7 +1713,7 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="21">
         <v>2303.8599999999988</v>
       </c>
       <c r="C66">
@@ -1457,7 +1746,7 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="22">
         <v>2278.8099999999986</v>
       </c>
       <c r="C69">
@@ -1468,7 +1757,7 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="22">
         <v>2270.4599999999991</v>
       </c>
       <c r="C70">
@@ -1479,7 +1768,7 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="22">
         <v>2262.1099999999988</v>
       </c>
       <c r="C71">
@@ -1490,7 +1779,7 @@
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="13">
         <v>2253.7600000000002</v>
       </c>
       <c r="C72">
@@ -1501,7 +1790,7 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="13">
         <v>2245.4099999999989</v>
       </c>
       <c r="C73">
@@ -1512,7 +1801,7 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="13">
         <v>2237.0599999999986</v>
       </c>
       <c r="C74">
@@ -1523,7 +1812,7 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="13">
         <v>2228.7099999999991</v>
       </c>
       <c r="C75">
@@ -1534,7 +1823,7 @@
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="13">
         <v>2220.3599999999988</v>
       </c>
       <c r="C76">
@@ -1545,7 +1834,7 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="23">
         <v>2212.0100000000002</v>
       </c>
       <c r="C77">
@@ -1556,7 +1845,7 @@
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="13">
+      <c r="B78" s="23">
         <v>2203.6599999999989</v>
       </c>
       <c r="C78">
@@ -1567,7 +1856,7 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B79" s="23">
         <v>2195.3099999999986</v>
       </c>
       <c r="C79">
@@ -1578,7 +1867,7 @@
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B80" s="23">
         <v>2186.9599999999991</v>
       </c>
       <c r="C80">
@@ -1589,7 +1878,7 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="13">
+      <c r="B81" s="23">
         <v>2178.6100000000006</v>
       </c>
       <c r="C81">
@@ -1600,7 +1889,7 @@
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B82" s="24">
         <v>2170.2600000000002</v>
       </c>
       <c r="C82">
@@ -1611,7 +1900,7 @@
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="24">
         <v>2161.9099999999989</v>
       </c>
       <c r="C83">
@@ -1622,7 +1911,7 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="13">
+      <c r="B84" s="24">
         <v>2153.5599999999977</v>
       </c>
       <c r="C84">
@@ -1633,7 +1922,7 @@
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B85" s="24">
         <v>2145.2099999999991</v>
       </c>
       <c r="C85">
@@ -1644,7 +1933,7 @@
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B86" s="24">
         <v>2136.8600000000006</v>
       </c>
       <c r="C86">
